--- a/app/upload/device/demo.xlsx
+++ b/app/upload/device/demo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="仪器信息0131" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">潘峰:
+          <t>潘峰:
 (年)(月的字母形式)(日的两位数字形式)(试剂来源)(2007年4月之前安装仪器定义为9)(年)(月-3,前三月定义为0)(序号)</t>
         </r>
       </text>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>识别码</t>
   </si>
@@ -140,19 +140,21 @@
   </si>
   <si>
     <t>库存空间</t>
+  </si>
+  <si>
+    <t>税号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -166,7 +168,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -209,23 +217,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -243,14 +236,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -319,6 +309,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -617,6 +612,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -656,6 +652,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -674,15 +671,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:AG1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AG1:AI1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" customWidth="1"/>
@@ -718,7 +714,7 @@
     <col min="33" max="256" width="8.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.95" customHeight="1" spans="1:33">
+    <row r="1" spans="1:35" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -818,13 +814,20 @@
       <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.393055555555556" right="0.393055555555556" top="0.747916666666667" bottom="0.747916666666667" header="0.314583333333333" footer="0.314583333333333"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.39305555555555599" right="0.39305555555555599" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31458333333333299" footer="0.31458333333333299"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>